--- a/templates/7th Sem.xlsx
+++ b/templates/7th Sem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Convert\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEC9335-2AEC-4FE2-8F16-4AB5E4C3E879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8364BE35-2278-4829-A83F-B6A96D4139AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A0F4358E-58E6-4F53-ABF3-7BBD23928A3F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>YENEPOYA INSTITUTE OF TECHNOLOGY</t>
   </si>
@@ -152,12 +152,6 @@
   </si>
   <si>
     <t>MAJOR PROJECT PHASE - II</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>Class Topper</t>
   </si>
 </sst>
 </file>
@@ -254,7 +248,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,12 +258,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,37 +315,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C169D211-6B3F-4B74-A015-B18EA1919C45}">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,14 +883,9 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="AB5" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="AB6" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="AB6" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -946,48 +929,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -1005,10 +988,10 @@
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1026,10 +1009,10 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1041,10 +1024,10 @@
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1056,10 +1039,10 @@
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1071,10 +1054,10 @@
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1086,10 +1069,10 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1101,10 +1084,10 @@
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1120,55 +1103,55 @@
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1179,10 +1162,10 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -1204,23 +1187,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
